--- a/Simulator_info.xlsx
+++ b/Simulator_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanmchugh/Projects/simulation_tests/package_testing-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE92F7AD-EB0F-114B-925A-22E37CC749F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E66508-1581-BD45-94F1-F28542AC0C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31000" yWindow="500" windowWidth="27600" windowHeight="16940" xr2:uid="{06AEC1C7-D667-9B48-9B0E-4093FBE5DA1E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Simulator</t>
   </si>
@@ -53,16 +53,10 @@
     <t>Gen3sis</t>
   </si>
   <si>
-    <t>Relevant Papers</t>
-  </si>
-  <si>
     <t>SLiM</t>
   </si>
   <si>
     <t>MESS</t>
-  </si>
-  <si>
-    <t>https://github.com/niemasd/FAVITES/wiki/Configuration-Files</t>
   </si>
   <si>
     <t>https://niema.net/FAVITES-Lite/</t>
@@ -72,10 +66,6 @@
 (FrAmework for VIral Transmission and Evolution Simulation)</t>
   </si>
   <si>
-    <t>FAVITES
-(FrAmework for VIral Transmission and Evolution Simulation)</t>
-  </si>
-  <si>
     <t>Less flexible version of FAVITES, but is expected to be more supported in the future, with FAVITES set to be deprecated. FAVITES-LITE is faster, more efficent, and uses less memory
 broken up into a config file and an executable file</t>
   </si>
@@ -634,9 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">Environmental Rasters of current and paleo climate, and a cost function dictating dispersal limitation as a function of distance and environment, and config object specifying functions to run and output to save </t>
-  </si>
-  <si>
-    <t>Phylogeny and trait</t>
   </si>
   <si>
     <t>Performs phylogenetic and ecological simulation jointly (species move and diversify all in one simulation)
@@ -647,6 +634,30 @@
 CANNOT simulate under both environmental filtering and competition at the same time in a single simulation, empirical applications of the method often would assess the % of simulations of each kind (neutral/biotic competition/abiotic filtering) that best fit the dataset
 Simulations occur in multiple steps, with the metacommunity phylogeny first being simulated, with traits then being simulated over that phylogeny in brownian motion, then community level processes are simulated (dispersal to and from the local community and the metacommunity it is a part of) 
 </t>
+  </si>
+  <si>
+    <t>Phylogeny and trait data, along with species richness and abundance over the raster landscape over time intervals set by the user</t>
+  </si>
+  <si>
+    <t>https://rdinnager.github.io/slimr/articles/slimrlang_intro.html
+https://tskit.dev/pyslim/docs/stable/vignette_parallel_phylo.html</t>
+  </si>
+  <si>
+    <t>Very flexible set of inputs and outputs but in generl need to specify population evolution parameters such as mutation rate, over a user definied genome size. Trees seem to be a possible output from the simulator but in a few different wyas, individual pedigrees are possible, as well as tree sequences where tree from each loci are gnerated, still researchering how this is done. But attached is a vignette showing how to simulate a phylogeny in SLiM, but the details from this vignette are not really covered clearly in the manual</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosbiology/article?id=10.1371/journal.pbio.3001340</t>
+  </si>
+  <si>
+    <t>Relevant Papers/</t>
+  </si>
+  <si>
+    <t>relevant links</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1004842
+https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1006581
+https://onlinelibrary.wiley.com/doi/10.1111/1755-0998.12968#men12968-bib-0025</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3523CC6E-D11C-794D-A4CA-06CF471B6C08}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1123,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,75 +1134,81 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="372" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="372" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{985F5717-2135-F649-B160-D2BD6A788FB1}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{73273B9D-2CA1-B948-BBBA-927F05BC22B5}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{2212E8E8-85A3-684C-885F-A861282A5371}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{73273B9D-2CA1-B948-BBBA-927F05BC22B5}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{2212E8E8-85A3-684C-885F-A861282A5371}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{23BE56A3-3836-A64B-879D-8131573B8791}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1004842" xr:uid="{7FB3420F-0FF4-C948-80E9-4337B75E77DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>